--- a/data/trans_dic/PLURIPATOLOGIA-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,22</t>
+          <t>0,0; 6,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 5,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 12,44</t>
+          <t>3,3; 13,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 14,93</t>
+          <t>5,61; 14,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,3</t>
+          <t>0,76; 7,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 15,12</t>
+          <t>3,89; 15,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 19,73</t>
+          <t>7,28; 19,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 28,55</t>
+          <t>17,98; 28,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,06</t>
+          <t>0,89; 5,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,09</t>
+          <t>2,68; 8,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 14,55</t>
+          <t>6,65; 13,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,3; 20,94</t>
+          <t>13,44; 20,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,12</t>
+          <t>1,5; 4,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,44</t>
+          <t>2,72; 6,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,47</t>
+          <t>2,3; 5,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 13,36</t>
+          <t>8,59; 13,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,03</t>
+          <t>2,46; 5,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 12,61</t>
+          <t>7,37; 12,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 13,6</t>
+          <t>8,43; 13,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,57; 18,88</t>
+          <t>13,8; 18,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,4</t>
+          <t>2,34; 4,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 8,75</t>
+          <t>5,55; 8,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,99</t>
+          <t>5,66; 8,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 15,36</t>
+          <t>11,98; 15,41</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,06</t>
+          <t>2,62; 5,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,99</t>
+          <t>2,65; 4,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,36</t>
+          <t>2,21; 4,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 9,92</t>
+          <t>6,48; 10,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,59</t>
+          <t>4,36; 7,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,99</t>
+          <t>7,45; 11,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,88</t>
+          <t>7,22; 10,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 17,5</t>
+          <t>14,04; 17,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,82</t>
+          <t>3,92; 5,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 7,67</t>
+          <t>5,25; 7,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,26</t>
+          <t>4,95; 7,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 13,3</t>
+          <t>10,67; 13,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,23</t>
+          <t>2,32; 5,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,54</t>
+          <t>2,58; 5,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,81</t>
+          <t>2,17; 4,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 9,94</t>
+          <t>6,08; 9,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 12,71</t>
+          <t>8,08; 12,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 11,47</t>
+          <t>7,18; 11,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,96</t>
+          <t>6,37; 10,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,33; 50,3</t>
+          <t>14,22; 51,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,34</t>
+          <t>5,55; 8,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,06</t>
+          <t>5,42; 8,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,33</t>
+          <t>4,74; 7,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,88; 35,54</t>
+          <t>10,96; 36,73</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,08</t>
+          <t>2,68; 4,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,47</t>
+          <t>2,69; 5,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,95</t>
+          <t>2,56; 5,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,26; 10,5</t>
+          <t>7,07; 10,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,85</t>
+          <t>5,63; 8,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,06</t>
+          <t>9,23; 13,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,98; 13,12</t>
+          <t>9,13; 13,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,35; 20,64</t>
+          <t>16,06; 20,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,54; 6,59</t>
+          <t>4,64; 6,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 8,99</t>
+          <t>6,54; 9,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 8,73</t>
+          <t>6,34; 8,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 15,32</t>
+          <t>12,59; 15,64</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,04</t>
+          <t>2,82; 4,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,53</t>
+          <t>3,13; 4,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,18</t>
+          <t>2,97; 4,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,87; 9,64</t>
+          <t>7,79; 9,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,69</t>
+          <t>5,85; 7,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,94; 11,06</t>
+          <t>8,91; 11,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,71; 10,9</t>
+          <t>8,85; 10,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,35; 27,31</t>
+          <t>16,37; 28,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,65</t>
+          <t>4,56; 5,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,29; 7,56</t>
+          <t>6,28; 7,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,13; 7,34</t>
+          <t>6,22; 7,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 18,96</t>
+          <t>12,6; 19,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PLURIPATOLOGIA-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,51</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 13,12</t>
+          <t>3,57; 12,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,33</t>
+          <t>0,77; 7,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 15,0</t>
+          <t>4,5; 15,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,28; 19,99</t>
+          <t>6,85; 19,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,32</t>
+          <t>0,99; 5,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,54</t>
+          <t>2,73; 8,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,83</t>
+          <t>6,5; 14,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,14</t>
+          <t>1,6; 4,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,4</t>
+          <t>2,89; 6,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,28</t>
+          <t>2,39; 5,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,94</t>
+          <t>2,57; 5,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 12,57</t>
+          <t>7,5; 12,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 13,45</t>
+          <t>8,37; 13,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,4</t>
+          <t>2,35; 4,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,74</t>
+          <t>5,6; 8,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 8,81</t>
+          <t>5,73; 8,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,05</t>
+          <t>2,62; 5,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,95</t>
+          <t>2,52; 4,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,31</t>
+          <t>2,13; 4,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,6</t>
+          <t>4,38; 7,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 11,07</t>
+          <t>7,31; 11,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,93</t>
+          <t>7,12; 11,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 5,8</t>
+          <t>3,92; 5,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 7,56</t>
+          <t>5,31; 7,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,24</t>
+          <t>4,79; 7,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,36</t>
+          <t>2,35; 5,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,51</t>
+          <t>2,5; 5,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,82</t>
+          <t>2,22; 5,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,62</t>
+          <t>8,22; 12,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,38</t>
+          <t>7,42; 11,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 10,47</t>
+          <t>6,36; 10,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,37</t>
+          <t>5,57; 8,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,12</t>
+          <t>5,41; 7,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,23</t>
+          <t>4,67; 7,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,99</t>
+          <t>2,68; 5,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,44</t>
+          <t>2,69; 5,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,02</t>
+          <t>2,45; 4,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,86</t>
+          <t>5,77; 8,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,23; 13,37</t>
+          <t>9,32; 13,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,13; 13,44</t>
+          <t>9,01; 12,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 6,65</t>
+          <t>4,58; 6,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 9,01</t>
+          <t>6,41; 8,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,77</t>
+          <t>6,27; 8,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,15</t>
+          <t>2,84; 4,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,51</t>
+          <t>3,15; 4,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 4,19</t>
+          <t>2,94; 4,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,54</t>
+          <t>5,83; 7,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,91; 11,01</t>
+          <t>8,93; 10,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,86</t>
+          <t>8,69; 10,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,61</t>
+          <t>4,56; 5,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,55</t>
+          <t>6,31; 7,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 7,41</t>
+          <t>6,17; 7,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/PLURIPATOLOGIA-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,64</t>
+          <t>0,0; 6,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,22</t>
+          <t>0,0; 4,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 12,88</t>
+          <t>3,25; 12,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 14,36</t>
+          <t>5,47; 14,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,59</t>
+          <t>0,77; 7,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 15,91</t>
+          <t>4,02; 15,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 19,71</t>
+          <t>7,54; 19,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,98; 28,4</t>
+          <t>17,49; 28,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,17</t>
+          <t>0,89; 5,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 8,68</t>
+          <t>2,36; 8,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 14,57</t>
+          <t>6,48; 14,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,44; 20,98</t>
+          <t>13,3; 20,94</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,11</t>
+          <t>1,55; 4,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,23</t>
+          <t>2,9; 6,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,54</t>
+          <t>2,31; 5,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 13,27</t>
+          <t>8,59; 13,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,97</t>
+          <t>2,67; 6,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 12,78</t>
+          <t>7,48; 12,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,52</t>
+          <t>8,33; 13,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,8; 18,99</t>
+          <t>13,57; 18,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,4</t>
+          <t>2,28; 4,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 8,68</t>
+          <t>5,6; 8,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 8,76</t>
+          <t>5,69; 8,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 15,41</t>
+          <t>11,96; 15,36</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,27</t>
+          <t>2,55; 5,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,96</t>
+          <t>2,67; 4,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,27</t>
+          <t>2,19; 4,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,06</t>
+          <t>6,47; 9,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,83</t>
+          <t>4,58; 7,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 11,03</t>
+          <t>7,34; 10,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,14</t>
+          <t>7,06; 10,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 17,45</t>
+          <t>13,91; 17,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 5,89</t>
+          <t>3,86; 5,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 7,45</t>
+          <t>5,43; 7,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 7,16</t>
+          <t>5,03; 7,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 13,22</t>
+          <t>10,55; 13,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,35</t>
+          <t>2,31; 5,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,66</t>
+          <t>2,54; 5,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,06</t>
+          <t>2,23; 4,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,75</t>
+          <t>6,01; 9,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,22; 12,67</t>
+          <t>8,02; 12,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,76</t>
+          <t>7,37; 11,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,75</t>
+          <t>6,63; 10,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 51,07</t>
+          <t>14,33; 50,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,3</t>
+          <t>5,48; 8,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,93</t>
+          <t>5,46; 8,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,27</t>
+          <t>4,8; 7,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,96; 36,73</t>
+          <t>10,88; 35,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,03</t>
+          <t>2,83; 5,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,43</t>
+          <t>2,64; 5,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,89</t>
+          <t>2,57; 4,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 10,38</t>
+          <t>7,26; 10,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 8,77</t>
+          <t>5,61; 8,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,32; 13,52</t>
+          <t>9,12; 13,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 12,92</t>
+          <t>8,98; 13,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,06; 20,52</t>
+          <t>16,35; 20,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 6,59</t>
+          <t>4,54; 6,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 8,97</t>
+          <t>6,59; 8,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,81</t>
+          <t>6,29; 8,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,59; 15,64</t>
+          <t>12,43; 15,32</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,09</t>
+          <t>2,82; 4,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 4,52</t>
+          <t>3,13; 4,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,15</t>
+          <t>2,88; 4,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,79; 9,71</t>
+          <t>7,87; 9,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,63</t>
+          <t>5,89; 7,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,93; 10,99</t>
+          <t>8,94; 11,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,69; 10,91</t>
+          <t>8,71; 10,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 28,23</t>
+          <t>16,35; 27,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,66</t>
+          <t>4,56; 5,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,31; 7,5</t>
+          <t>6,29; 7,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,17; 7,43</t>
+          <t>6,13; 7,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,6; 19,87</t>
+          <t>12,65; 18,96</t>
         </is>
       </c>
     </row>
